--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/32_Eskişehir_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/32_Eskişehir_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9BE7FDC-DD97-4C4D-B817-570AA91A83E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B5AC28E-F1BF-44B8-84EA-35C5499033DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{E47B32D4-AEF3-4B5C-B729-0855AE809DD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{E76E3229-AB3F-4C89-B7E1-860FEBCABF03}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -902,14 +902,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{EBAB3B6B-95D7-495E-A407-49A27A54D37B}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E1AF31F7-B5EA-4A9F-B864-AD43DD0CBE8C}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{7E2A9F63-1AE5-49D6-B978-5D4AB16B9811}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{CFCC7E11-AF23-4A3D-BF71-237B90C1F603}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{D5BE1D2F-D1A0-43C5-A744-BDF5FF76E9E5}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{585A5BA6-92BD-4FBA-BB3E-7220AD3E19F4}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{82A47A0A-E527-4A75-8D96-A0E5FEC5B4F8}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C0678E3E-9F29-4322-A138-E4D393CA1F38}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F706460E-A65F-4016-B9FF-21807F045E83}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{0F5DB44D-9444-40A5-8F64-4CE738826AB9}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{F9B0DCBD-8D65-4089-97E7-997177D48FEE}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{C848A5AA-208F-46CC-86CB-7D297313A181}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{197A0AB8-0FD5-48E7-BDC5-907EE3F7E244}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{ECEEEDEB-74ED-40F4-BF7A-A9A8B275AE38}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{36F44BCF-D400-440A-ADD4-6EDF0D2F3782}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{CDDACA4E-DA91-48A3-96EE-1C347B79EB85}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1279,7 +1279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A662E2BE-A1B1-463D-B35C-E90DF09E2584}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023DF8CC-623E-4908-A5E7-F8015B099592}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2572,7 +2572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC912CA-270E-46BF-9FDC-9CD74749ABF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF81C6BA-1416-4B26-AD89-A3BDCE545C62}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3860,7 +3860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2875880E-1B22-4645-969B-0869A996CFD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC51CF33-774B-40DC-9988-E75CED42D8A5}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5150,7 +5150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499F9424-D865-4AAE-BC01-EF9AD4F4F5EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE40F50C-0C8E-41B5-9CFD-8DBAFD9AA580}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6432,7 +6432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC34CF47-7A9C-4787-B19A-7115F4FC9C24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB9A828-E945-4B99-A4A0-9A34B637E4AE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7723,7 +7723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96661D04-77D2-478E-9409-BBA9A1D868A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFDEB96-D0E1-4B9E-810D-49EE14221D92}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9014,7 +9014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D04354-37F4-4BD5-9C26-E205BBD57BFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A7E1F7-6E7E-4538-AE8C-671FDC94841F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10303,7 +10303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E020CF6-341D-4B93-A3C1-5319E9E80453}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3100BD2E-A168-4126-8219-27CF18289153}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11592,7 +11592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FA64B7-7F58-4A87-9B0A-DF52B8044255}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3955FB3E-1952-4746-B175-7AF84415522D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12879,7 +12879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8220CF01-553D-40F9-BF13-A5C32B3D0573}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C289B80F-1AE2-4882-983C-4670A83DD3EB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14168,7 +14168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385FC184-07B9-40BB-B8B6-1057C77EB6EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E42E942-9CC2-465F-A9F3-6CB5B84C9266}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15457,7 +15457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0BDC93-B4CB-46DE-BEE1-16C8D497AEB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DD18A5-30EA-48FD-A3D9-40C310B75D02}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
